--- a/data_sample50.xlsx
+++ b/data_sample50.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diamo\OneDrive\바탕 화면\ncw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/minsub/ACM_SAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D90C3D-0BA0-CC45-86E4-966967AEF6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,20 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="158">
   <si>
     <t>Have you ever seen his music video on Youtube today?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,14 +88,6 @@
   </si>
   <si>
     <t>AfreecaTv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>label이 1이면 두 문장의 keyword가 같은 entity, label이 0이면 두 문장의 keyword가 다른 entitiy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -616,12 +601,16 @@
     <t>Apples</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>oov_sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -670,7 +659,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -691,15 +680,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -732,7 +712,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,31 +722,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1082,39 +1053,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="56.21875" customWidth="1"/>
-    <col min="2" max="2" width="17.5546875" customWidth="1"/>
-    <col min="3" max="3" width="39.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.44140625" customWidth="1"/>
+    <col min="1" max="1" width="56.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1130,11 +1101,8 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1151,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1168,7 +1136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1185,873 +1153,858 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="6" t="s">
+      <c r="D17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E17" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="6" t="s">
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="E20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="D21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E20" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="D22" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E21" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="6" t="s">
+      <c r="C23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="D25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E24" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="D26" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E25" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="D27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="6" t="s">
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="E32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E31" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="10" t="s">
+      <c r="C36" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E35" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="6" t="s">
+      <c r="E36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E36" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="6" t="s">
+      <c r="C37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E37" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="C38" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+      <c r="C39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="D41" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C41" s="1" t="s">
+      <c r="D42" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E41" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E42" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="D43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E43" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="6" t="s">
+      <c r="E44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C45" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D45" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E44" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="1" t="s">
+      <c r="D46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C47" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E45" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E46" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="D47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="E48" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E48" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="6" t="s">
+      <c r="D49" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E49" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E49" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="6" t="s">
+      <c r="C50" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E50" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="C51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="D52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E51" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
+      <c r="E52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B53" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E52" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
+      <c r="C53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B54" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E53" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="6" t="s">
+      <c r="C54" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B55" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E54" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="C55" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C56" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C57" s="9"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C58" s="9"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C56:C58"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/data_sample50.xlsx
+++ b/data_sample50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/minsub/ACM_SAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D90C3D-0BA0-CC45-86E4-966967AEF6E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F31B78-D955-4F43-BB42-45C0EE09809B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -84,10 +84,6 @@
   </si>
   <si>
     <t>Pangyo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AfreecaTv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,6 +599,10 @@
   </si>
   <si>
     <t>oov_sent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AfreecaTV</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,14 +1057,14 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="56.28515625" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
-    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="3" max="3" width="84.7109375" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1076,7 +1076,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>157</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1155,16 +1155,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -1172,16 +1172,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -1190,16 +1190,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1207,16 +1207,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9" s="2">
         <v>1</v>
@@ -1224,16 +1224,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="2">
         <v>0</v>
@@ -1241,16 +1241,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="2">
         <v>0</v>
@@ -1258,16 +1258,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -1275,16 +1275,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
@@ -1292,16 +1292,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="2">
         <v>0</v>
@@ -1309,16 +1309,16 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E15" s="2">
         <v>0</v>
@@ -1326,16 +1326,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1343,16 +1343,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1360,16 +1360,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1377,16 +1377,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1394,16 +1394,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1411,16 +1411,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1428,16 +1428,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1445,16 +1445,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1462,16 +1462,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>73</v>
-      </c>
       <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1479,16 +1479,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1496,16 +1496,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1513,16 +1513,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1530,16 +1530,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="C28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1547,16 +1547,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1564,16 +1564,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1581,16 +1581,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1598,16 +1598,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1615,16 +1615,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1632,16 +1632,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -1649,16 +1649,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1666,16 +1666,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -1683,16 +1683,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="C37" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -1700,16 +1700,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -1717,16 +1717,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>110</v>
-      </c>
       <c r="C39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1734,16 +1734,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="C40" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -1751,16 +1751,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -1768,16 +1768,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -1785,16 +1785,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -1802,16 +1802,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="C44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>125</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -1819,16 +1819,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -1836,16 +1836,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -1853,16 +1853,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>136</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -1870,16 +1870,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>140</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -1887,16 +1887,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>142</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -1904,16 +1904,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -1921,16 +1921,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1938,16 +1938,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="C52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -1955,16 +1955,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C53" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -1972,16 +1972,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>154</v>
-      </c>
       <c r="C54" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -1989,16 +1989,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="C55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>

--- a/data_sample50.xlsx
+++ b/data_sample50.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/minsub/ACM_SAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85F31B78-D955-4F43-BB42-45C0EE09809B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6497CC-403F-1B47-83C4-CA9BA4F11CDF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="38400" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="160">
   <si>
     <t>Have you ever seen his music video on Youtube today?</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,10 +170,6 @@
   </si>
   <si>
     <t xml:space="preserve">The Mechanic and the Technic, 5th ed. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greg covers boys soccer, wrestling and boys tennis</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -603,6 +599,18 @@
   </si>
   <si>
     <t>AfreecaTV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whats better than No-Humanity Caroline ?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No-Humanity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greg covers boys soccer, wrestling and boys TENNIS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,7 +1065,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="18"/>
@@ -1076,7 +1084,7 @@
         <v>7</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>9</v>
@@ -1096,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -1113,7 +1121,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -1196,10 +1204,10 @@
         <v>24</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>22</v>
+        <v>157</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>21</v>
+        <v>158</v>
       </c>
       <c r="E8" s="2">
         <v>1</v>
@@ -1295,7 +1303,7 @@
         <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>34</v>
@@ -1309,10 +1317,10 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>35</v>
@@ -1326,16 +1334,16 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -1343,16 +1351,16 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -1360,16 +1368,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
@@ -1377,16 +1385,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2">
         <v>0</v>
@@ -1394,16 +1402,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -1411,16 +1419,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="C21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -1428,16 +1436,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E22" s="2">
         <v>0</v>
@@ -1445,16 +1453,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E23" s="2">
         <v>0</v>
@@ -1462,16 +1470,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="C24" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -1479,16 +1487,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -1496,16 +1504,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>76</v>
-      </c>
       <c r="C26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E26" s="2">
         <v>0</v>
@@ -1513,16 +1521,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" s="2">
         <v>0</v>
@@ -1530,16 +1538,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E28" s="2">
         <v>1</v>
@@ -1547,16 +1555,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="2">
         <v>1</v>
@@ -1564,16 +1572,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
@@ -1581,16 +1589,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E31" s="2">
         <v>0</v>
@@ -1598,16 +1606,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C32" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -1615,16 +1623,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="C33" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -1632,16 +1640,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="C34" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2">
         <v>0</v>
@@ -1649,16 +1657,16 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E35" s="2">
         <v>0</v>
@@ -1666,16 +1674,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E36" s="2">
         <v>1</v>
@@ -1683,16 +1691,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="C37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E37" s="2">
         <v>1</v>
@@ -1700,16 +1708,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E38" s="2">
         <v>0</v>
@@ -1717,16 +1725,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B39" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="E39" s="2">
         <v>0</v>
@@ -1734,16 +1742,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>116</v>
-      </c>
       <c r="C40" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -1751,16 +1759,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="C41" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -1768,16 +1776,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B42" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="C42" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
@@ -1785,16 +1793,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="C43" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E43" s="2">
         <v>0</v>
@@ -1802,16 +1810,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B44" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="C44" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E44" s="2">
         <v>1</v>
@@ -1819,16 +1827,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>131</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E45" s="2">
         <v>1</v>
@@ -1836,16 +1844,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2">
         <v>0</v>
@@ -1853,16 +1861,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="B47" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="C47" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2">
         <v>0</v>
@@ -1870,16 +1878,16 @@
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B48" s="1" t="s">
-        <v>139</v>
-      </c>
       <c r="C48" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48" s="2">
         <v>1</v>
@@ -1887,16 +1895,16 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="C49" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E49" s="2">
         <v>1</v>
@@ -1904,16 +1912,16 @@
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="C50" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2">
         <v>0</v>
@@ -1921,16 +1929,16 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B51" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B51" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C51" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E51" s="2">
         <v>0</v>
@@ -1938,16 +1946,16 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B52" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C52" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E52" s="2">
         <v>1</v>
@@ -1955,16 +1963,16 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="1" t="s">
-        <v>151</v>
-      </c>
       <c r="C53" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E53" s="2">
         <v>1</v>
@@ -1972,16 +1980,16 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C54" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
@@ -1989,16 +1997,16 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="C55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E55" s="2">
         <v>0</v>
